--- a/extractosBancarios/03012023/CARMIÑA/0022-01012023-03012023.xlsx
+++ b/extractosBancarios/03012023/CARMIÑA/0022-01012023-03012023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,12 +10,25 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{09511CE6-49C0-4970-80F6-8237669EE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovimientosPorFecha - 04_01_202" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,7 +706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -988,14 +1001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>44929</v>
       </c>
@@ -1065,7 +1078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>44929</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -1135,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>44929</v>
       </c>
@@ -1170,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>44929</v>
       </c>
@@ -1205,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>44929</v>
       </c>
@@ -1240,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>44929</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>44929</v>
       </c>
@@ -1310,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>44929</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>44929</v>
       </c>
@@ -1380,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>44929</v>
       </c>
@@ -1415,7 +1428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>44929</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>44929</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>44929</v>
       </c>
@@ -1520,7 +1533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>44929</v>
       </c>
@@ -1555,7 +1568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>44929</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>44929</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>44929</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>44929</v>
       </c>
@@ -1695,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>44929</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>44929</v>
       </c>
@@ -1765,7 +1778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>44929</v>
       </c>
